--- a/data/trans_dic/P24_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia</t>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,14%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>5,96%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,44%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>11,02%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>4,54%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>9,12%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,37</t>
+          <t>1,93; 4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,95</t>
+          <t>3,1; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,17</t>
+          <t>3,44; 6,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,8</t>
+          <t>4,36; 7,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,23</t>
+          <t>6,49; 11,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,76</t>
+          <t>5,49; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,0</t>
+          <t>9,13; 14,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,57</t>
+          <t>4,42; 8,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,74</t>
+          <t>5,19; 9,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,78</t>
+          <t>5,94; 9,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,66</t>
+          <t>6,2; 9,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,54</t>
+          <t>7,76; 13,2</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,68</t>
+          <t>8,75; 13,54</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,12</t>
+          <t>13,8; 19,32</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,92</t>
+          <t>3,54; 5,63</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 7,43</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,22; 7,65</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 8,39</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 11,37</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 10,8</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 15,97</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,02%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,78%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>5,57%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>6,55%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>4,67%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>5,89%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,77</t>
+          <t>2,02; 7,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,16</t>
+          <t>3,79; 9,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,15</t>
+          <t>4,36; 8,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,54</t>
+          <t>3,65; 7,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,15</t>
+          <t>6,6; 12,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,68</t>
+          <t>4,46; 10,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,85</t>
+          <t>6,95; 15,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,42</t>
+          <t>4,02; 7,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,9</t>
+          <t>4,55; 10,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,85</t>
+          <t>5,75; 9,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,55</t>
+          <t>4,15; 10,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,95</t>
+          <t>10,71; 19,9</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,2</t>
+          <t>3,72; 11,21</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,35</t>
+          <t>9,92; 20,49</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,81</t>
+          <t>3,34; 6,51</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 8,82</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 8,34</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 8,13</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 14,99</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 9,69</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 16,52</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>8,14%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>6,12%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,27</t>
+          <t>1,71; 8,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,6</t>
+          <t>1,49; 9,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,12</t>
+          <t>4,54; 13,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 9,61</t>
+          <t>2,91; 10,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,76; 18,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 13,31</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 11,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,48</t>
+          <t>4,66; 12,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,87</t>
+          <t>3,0; 11,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>4,43; 13,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 12,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 23,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 8,77</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 8,17</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 12,55</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 9,03</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 8,4</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 11,74</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 10,41</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 18,39</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,11%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>6,06%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>10,06%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>4,78%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>8,59%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,07</t>
+          <t>2,49; 4,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,57</t>
+          <t>3,94; 6,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,1</t>
+          <t>4,71; 7,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,84</t>
+          <t>4,5; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,73</t>
+          <t>7,39; 11,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,49</t>
+          <t>5,5; 8,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,4</t>
+          <t>9,32; 13,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,0</t>
+          <t>4,9; 7,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,38</t>
+          <t>5,53; 8,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 12,52</t>
+          <t>6,35; 9,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,75</t>
+          <t>5,81; 8,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 6,99</t>
+          <t>10,3; 15,0</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,68</t>
+          <t>8,27; 12,15</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,14</t>
+          <t>13,45; 18,65</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,96</t>
+          <t>4,06; 5,74</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 7,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 7,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 7,45</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 12,42</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,84</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 15,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con incremento de la tensión arterial con bastante o mucha frecuencia (tasa de respuesta: 98,62%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48902</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75726</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>77202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>93493</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>140192</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15793</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25561</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>106787</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>124006</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>132529</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136457</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>177474</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25402</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>37423</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>155689</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>199732</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>209731</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>229950</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>317665</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>41195</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>62983</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31678; 72739</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>49763; 107504</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54264; 105499</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69741; 126522</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>105066; 192512</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12132; 20417</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20349; 31583</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>79184; 143333</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90508; 161511</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>104251; 168452</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>108531; 172067</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>137500; 234047</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20155; 31209</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31900; 44656</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>121316; 193101</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>156977; 248930</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>173996; 254853</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>193017; 281049</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>257915; 385595</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>34935; 48762</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>55397; 72489</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52217</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>77367</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80162</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69926</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>123651</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7718</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78501</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91555</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>98675</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>83990</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>198521</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4143</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9550</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>130718</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>168922</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>178837</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>153915</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>322172</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>9083</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>17268</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28072; 97217</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49661; 126160</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>57435; 110029</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>48048; 98009</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90185; 171083</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3139; 7341</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4980; 11156</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56719; 109249</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>61719; 138357</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75243; 130791</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>56016; 139088</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>146385; 271928</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2353; 7093</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6425; 13267</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>93335; 182185</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>126911; 235080</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>143900; 218898</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>117943; 216740</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>262672; 409868</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>6428; 12950</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>12949; 22530</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17566</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16981</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33614</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22929</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>43223</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33519</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25013</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32159</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27879</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>60281</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>51085</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>41995</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>65772</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>50807</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>103504</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7227; 34344</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6001; 36806</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18144; 55589</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12046; 42971</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23441; 73694</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19198; 53120</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12121; 46262</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17153; 51685</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13688; 49796</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35674; 96424</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>32620; 75336</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>23248; 67782</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>44005; 92343</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>31468; 84022</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>71658; 149715</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>118686</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>170074</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>190977</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>186347</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>307065</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20733</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33279</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>218806</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>240574</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>263363</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>248325</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>436276</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>29545</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>46972</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>337492</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>410649</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>454340</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>434673</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>743341</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>50278</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>80251</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>85724; 170561</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>130645; 228998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>155024; 239282</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>149861; 228808</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>250739; 376702</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>16028; 25834</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27445; 39312</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>177126; 260858</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>193685; 300022</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>219088; 310525</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>202814; 303321</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>365437; 532096</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24281; 35679</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>39810; 55193</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>286627; 405508</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>348283; 490095</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>400929; 521933</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>377660; 508149</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>653760; 861958</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>42323; 57618</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>70878; 89560</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
